--- a/batch167/A9_FileHandlingTest/File/Test.xlsx
+++ b/batch167/A9_FileHandlingTest/File/Test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vcentry\batch167\A9_FileHandlingTest\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A8CFC-0FEF-40F9-A02F-E31925D51FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB539E38-578A-4F05-9A05-20D7DBA3AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>vcentry1</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>vcentry9</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -371,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -413,4 +426,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2252C68A-0E7E-40E5-B339-A981898FF868}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>